--- a/AV_testing.xlsx
+++ b/AV_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/AV Outlook/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3655A-B274-A64B-A5E9-0E4B885061B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E159ED-319C-D84C-9AE4-93E35090A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="680" windowWidth="28040" windowHeight="14280" activeTab="1" xr2:uid="{53BBC755-765E-6140-BB2D-93308660DAD9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
   <si>
     <t>State</t>
   </si>
@@ -389,9 +389,6 @@
     <t xml:space="preserve">rural </t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>delivery robot</t>
   </si>
   <si>
@@ -414,6 +411,12 @@
   </si>
   <si>
     <t>Intel/mobileye</t>
+  </si>
+  <si>
+    <t>other vehicles</t>
+  </si>
+  <si>
+    <t>other roads</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1727,8 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,6 +1739,7 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -1773,7 +1777,7 @@
         <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
         <v>108</v>
@@ -1782,31 +1786,31 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>121</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>122</v>
-      </c>
-      <c r="T1" t="s">
-        <v>123</v>
       </c>
       <c r="U1" t="s">
         <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1948,7 +1952,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/AV_testing.xlsx
+++ b/AV_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/AV Outlook/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E159ED-319C-D84C-9AE4-93E35090A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F3ECB-FD19-3547-9F22-86C8C66EF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="680" windowWidth="28040" windowHeight="14280" activeTab="1" xr2:uid="{53BBC755-765E-6140-BB2D-93308660DAD9}"/>
+    <workbookView xWindow="4460" yWindow="500" windowWidth="28040" windowHeight="14280" activeTab="1" xr2:uid="{53BBC755-765E-6140-BB2D-93308660DAD9}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="1" r:id="rId1"/>
